--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-03T14:30:00+00:00</t>
+    <t>2025-06-03T15:17:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-03T15:17:23+00:00</t>
+    <t>2025-06-03T15:24:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-03T15:24:37+00:00</t>
+    <t>2025-06-04T08:16:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -87,7 +87,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>R5 Profile: Represents a statement about the patient's medication use *before* the index event. Uses adherence.code (#taking/#not-taking) to indicate usage status.</t>
+    <t>Represents a statement about the patient's medication use *before* the index event.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-04T08:16:37+00:00</t>
+    <t>2025-06-04T08:27:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-04T08:27:13+00:00</t>
+    <t>2025-06-04T08:35:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-04T08:35:18+00:00</t>
+    <t>2025-06-04T08:43:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-04T08:43:19+00:00</t>
+    <t>2025-06-04T08:56:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-04T08:56:07+00:00</t>
+    <t>2025-06-04T09:35:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-04T09:35:36+00:00</t>
+    <t>2025-08-28T12:22:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-28T12:22:25+00:00</t>
+    <t>2025-08-28T12:34:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-28T12:34:04+00:00</t>
+    <t>2025-08-28T14:22:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-28T14:22:33+00:00</t>
+    <t>2025-08-28T14:36:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-28T14:36:09+00:00</t>
+    <t>2025-08-29T08:36:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-29T08:36:57+00:00</t>
+    <t>2025-08-29T09:46:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-29T09:46:03+00:00</t>
+    <t>2025-09-03T11:52:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-03T11:52:57+00:00</t>
+    <t>2025-09-04T12:43:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-04T12:43:39+00:00</t>
+    <t>2025-09-05T10:27:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-05T10:27:45+00:00</t>
+    <t>2025-09-05T14:06:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-05T14:06:57+00:00</t>
+    <t>2025-09-05T16:38:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-05T16:38:52+00:00</t>
+    <t>2025-09-08T06:26:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T06:26:35+00:00</t>
+    <t>2025-09-08T07:31:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T07:31:14+00:00</t>
+    <t>2025-09-08T10:17:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T10:17:51+00:00</t>
+    <t>2025-09-08T16:35:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T16:35:28+00:00</t>
+    <t>2025-09-09T08:15:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -510,7 +510,7 @@
     <t>MedicationStatement.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Procedure|MedicationStatement)
+    <t xml:space="preserve">Reference(Procedure|5.0.0|MedicationStatement|5.0.0)
 </t>
   </si>
   <si>
@@ -570,7 +570,7 @@
     <t>A coded concept identifying where the medication included in the MedicationStatement is expected to be consumed or administered.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/medicationrequest-admin-location</t>
+    <t>http://hl7.org/fhir/ValueSet/medicationrequest-admin-location|5.0.0</t>
   </si>
   <si>
     <t>FiveWs.class</t>
@@ -582,7 +582,7 @@
     <t>MedicationStatement.medication</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableReference(Medication)
+    <t xml:space="preserve">CodeableReference(Medication|5.0.0)
 </t>
   </si>
   <si>
@@ -635,7 +635,7 @@
     <t>MedicationStatement.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(Encounter|5.0.0)
 </t>
   </si>
   <si>
@@ -698,7 +698,7 @@
     <t>MedicationStatement.informationSource</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Practitioner|PractitionerRole|RelatedPerson|Organization)
+    <t xml:space="preserve">Reference(Patient|5.0.0|Practitioner|5.0.0|PractitionerRole|5.0.0|RelatedPerson|5.0.0|Organization|5.0.0)
 </t>
   </si>
   <si>
@@ -717,7 +717,7 @@
     <t>MedicationStatement.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|5.0.0)
 </t>
   </si>
   <si>
@@ -736,7 +736,7 @@
     <t>MedicationStatement.reason</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableReference(Condition|Observation|DiagnosticReport)
+    <t xml:space="preserve">CodeableReference(Condition|5.0.0|Observation|5.0.0|DiagnosticReport|5.0.0)
 </t>
   </si>
   <si>
@@ -752,7 +752,7 @@
     <t>A coded concept identifying why the medication is being taken.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/condition-code</t>
+    <t>http://hl7.org/fhir/ValueSet/condition-code|5.0.0</t>
   </si>
   <si>
     <t>Event.reason</t>
@@ -786,7 +786,7 @@
     <t>MedicationStatement.relatedClinicalInformation</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Observation|Condition)
+    <t xml:space="preserve">Reference(Observation|5.0.0|Condition|5.0.0)
 </t>
   </si>
   <si>
@@ -929,7 +929,7 @@
     <t>This is generally only used for "exception" statuses such as "entered-in-error". The reason for performing the event at all is captured in reasonCode, not here.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/reason-medication-status-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/reason-medication-status-codes|5.0.0</t>
   </si>
   <si>
     <t>.inboundRelationship[typeCode=SUBJ].source[classCode=CACT, moodCode=EVN].reasonCode</t>
@@ -1273,7 +1273,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="60.91015625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="83.5546875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1288,7 +1288,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="106.38671875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="51.71484375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="54.09375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-09T08:15:52+00:00</t>
+    <t>2025-09-09T09:28:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-09T09:28:44+00:00</t>
+    <t>2025-09-12T08:57:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-12T08:57:32+00:00</t>
+    <t>2025-09-15T11:30:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-15T11:30:19+00:00</t>
+    <t>2025-09-15T14:05:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-15T14:05:10+00:00</t>
+    <t>2025-09-17T09:29:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T09:29:40+00:00</t>
+    <t>2025-09-17T10:41:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T10:41:45+00:00</t>
+    <t>2025-09-17T12:21:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T12:21:11+00:00</t>
+    <t>2025-09-17T16:26:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T16:26:28+00:00</t>
+    <t>2025-09-17T16:58:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -914,7 +914,7 @@
     <t>Type of the adherence for the medication.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/CodeSystem/medication-statement-adherence</t>
+    <t>http://hl7.org/fhir/ValueSet/medication-statement-adherence</t>
   </si>
   <si>
     <t>MedicationStatement.adherence.reason</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T16:58:51+00:00</t>
+    <t>2025-09-22T08:26:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T08:26:26+00:00</t>
+    <t>2025-09-22T08:28:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T08:28:48+00:00</t>
+    <t>2025-09-22T08:30:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T08:30:29+00:00</t>
+    <t>2025-09-22T08:34:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T08:34:05+00:00</t>
+    <t>2025-09-22T09:39:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T09:39:31+00:00</t>
+    <t>2025-09-22T09:39:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T09:39:40+00:00</t>
+    <t>2025-09-22T11:46:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T11:46:58+00:00</t>
+    <t>2025-09-22T13:11:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T13:11:45+00:00</t>
+    <t>2025-09-22T14:03:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T14:03:07+00:00</t>
+    <t>2025-09-22T15:14:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T15:14:25+00:00</t>
+    <t>2025-09-22T16:06:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T16:06:01+00:00</t>
+    <t>2025-09-22T16:51:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T16:51:16+00:00</t>
+    <t>2025-09-22T17:06:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T17:06:55+00:00</t>
+    <t>2025-09-22T17:32:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T17:32:58+00:00</t>
+    <t>2025-09-22T17:48:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T17:48:18+00:00</t>
+    <t>2025-09-22T18:03:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T18:03:45+00:00</t>
+    <t>2025-09-23T08:18:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T08:18:09+00:00</t>
+    <t>2025-09-23T08:32:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T08:32:43+00:00</t>
+    <t>2025-09-23T08:41:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T08:41:48+00:00</t>
+    <t>2025-09-23T08:42:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T08:42:22+00:00</t>
+    <t>2025-09-23T08:51:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T08:51:27+00:00</t>
+    <t>2025-09-23T08:52:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T08:52:02+00:00</t>
+    <t>2025-09-23T10:06:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T10:06:45+00:00</t>
+    <t>2025-09-23T10:19:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T10:19:12+00:00</t>
+    <t>2025-09-23T10:19:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T10:19:52+00:00</t>
+    <t>2025-09-23T10:20:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T10:20:32+00:00</t>
+    <t>2025-09-23T10:26:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T10:26:15+00:00</t>
+    <t>2025-09-23T10:43:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T10:43:17+00:00</t>
+    <t>2025-09-23T11:03:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T11:03:07+00:00</t>
+    <t>2025-09-23T11:44:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T11:44:28+00:00</t>
+    <t>2025-09-23T12:00:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T12:00:42+00:00</t>
+    <t>2025-09-23T12:55:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T12:55:27+00:00</t>
+    <t>2025-09-23T13:35:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T13:35:37+00:00</t>
+    <t>2025-09-23T14:01:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T14:01:22+00:00</t>
+    <t>2025-09-23T14:15:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T14:15:20+00:00</t>
+    <t>2025-09-23T14:32:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T14:32:14+00:00</t>
+    <t>2025-09-23T16:14:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T16:14:11+00:00</t>
+    <t>2025-09-23T16:36:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T16:36:06+00:00</t>
+    <t>2025-09-23T17:01:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T17:01:11+00:00</t>
+    <t>2025-09-24T09:25:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T09:25:22+00:00</t>
+    <t>2025-09-24T10:35:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T10:35:41+00:00</t>
+    <t>2025-09-24T10:48:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T10:48:34+00:00</t>
+    <t>2025-09-24T11:09:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T11:09:16+00:00</t>
+    <t>2025-09-24T16:01:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T16:01:08+00:00</t>
+    <t>2025-09-24T16:38:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T16:38:52+00:00</t>
+    <t>2025-09-25T09:51:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T09:51:46+00:00</t>
+    <t>2025-09-25T09:59:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T09:59:12+00:00</t>
+    <t>2025-09-25T10:18:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T10:18:49+00:00</t>
+    <t>2025-09-25T10:34:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T10:34:09+00:00</t>
+    <t>2025-09-25T11:37:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T11:37:39+00:00</t>
+    <t>2025-09-25T13:52:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T13:52:06+00:00</t>
+    <t>2025-09-25T14:17:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T14:17:34+00:00</t>
+    <t>2025-09-25T15:24:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T15:24:58+00:00</t>
+    <t>2025-09-26T07:24:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T07:24:51+00:00</t>
+    <t>2025-09-26T07:49:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T07:49:53+00:00</t>
+    <t>2025-09-26T08:03:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T08:03:06+00:00</t>
+    <t>2025-09-29T10:55:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T10:55:47+00:00</t>
+    <t>2025-09-29T11:14:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T11:14:34+00:00</t>
+    <t>2025-09-29T11:58:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T11:58:57+00:00</t>
+    <t>2025-09-29T12:25:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T12:25:49+00:00</t>
+    <t>2025-09-29T16:14:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T16:14:38+00:00</t>
+    <t>2025-09-30T09:58:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-30T09:58:20+00:00</t>
+    <t>2025-10-01T11:45:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2902,7 +2902,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
         <v>179</v>
       </c>
@@ -3014,7 +3014,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
         <v>188</v>
       </c>
@@ -3690,7 +3690,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
         <v>228</v>
       </c>
@@ -4256,7 +4256,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
         <v>261</v>
       </c>
@@ -4712,7 +4712,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
         <v>282</v>
       </c>
@@ -4936,12 +4936,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AN32">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-01T11:45:35+00:00</t>
+    <t>2025-10-02T08:30:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T08:30:31+00:00</t>
+    <t>2025-10-02T08:31:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T08:31:49+00:00</t>
+    <t>2025-10-02T08:40:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T08:40:06+00:00</t>
+    <t>2025-10-02T08:55:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T08:55:17+00:00</t>
+    <t>2025-10-02T09:37:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T09:37:00+00:00</t>
+    <t>2025-10-02T10:13:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T10:13:04+00:00</t>
+    <t>2025-10-02T10:17:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T10:17:19+00:00</t>
+    <t>2025-10-02T10:35:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T10:35:00+00:00</t>
+    <t>2025-10-02T10:46:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T10:46:31+00:00</t>
+    <t>2025-10-02T10:50:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T10:50:34+00:00</t>
+    <t>2025-10-02T10:55:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T10:55:47+00:00</t>
+    <t>2025-10-02T11:00:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T11:00:11+00:00</t>
+    <t>2025-10-02T11:01:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T11:01:02+00:00</t>
+    <t>2025-10-02T11:30:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T11:30:52+00:00</t>
+    <t>2025-10-02T11:45:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T11:45:35+00:00</t>
+    <t>2025-10-02T11:46:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T11:46:56+00:00</t>
+    <t>2025-10-02T12:55:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T12:55:14+00:00</t>
+    <t>2025-10-02T12:55:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T12:55:42+00:00</t>
+    <t>2025-10-03T09:35:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-03T09:35:04+00:00</t>
+    <t>2025-10-03T10:22:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-03T10:22:41+00:00</t>
+    <t>2025-10-03T16:25:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-03T16:25:29+00:00</t>
+    <t>2025-10-03T16:32:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-03T16:32:49+00:00</t>
+    <t>2025-10-06T07:31:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-06T07:31:52+00:00</t>
+    <t>2025-10-07T10:46:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T10:46:08+00:00</t>
+    <t>2025-10-07T11:37:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T11:37:10+00:00</t>
+    <t>2025-10-07T12:40:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T12:40:55+00:00</t>
+    <t>2025-10-07T16:03:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T16:03:53+00:00</t>
+    <t>2025-10-09T10:11:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T10:11:37+00:00</t>
+    <t>2025-10-16T13:22:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T13:22:06+00:00</t>
+    <t>2025-10-16T13:23:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T13:23:59+00:00</t>
+    <t>2025-10-20T09:52:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-20T09:52:43+00:00</t>
+    <t>2025-10-20T12:40:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2676,7 +2676,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
         <v>161</v>
       </c>
@@ -2695,7 +2695,7 @@
         <v>89</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>90</v>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-20T12:40:55+00:00</t>
+    <t>2025-10-20T13:57:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3126,7 +3126,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
         <v>196</v>
       </c>
@@ -3139,13 +3139,13 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>21</v>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-20T13:57:50+00:00</t>
+    <t>2025-10-20T14:31:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-20T14:31:52+00:00</t>
+    <t>2025-10-21T11:09:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-21T11:09:58+00:00</t>
+    <t>2025-10-23T09:52:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T09:52:59+00:00</t>
+    <t>2025-10-23T14:53:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T14:53:04+00:00</t>
+    <t>2025-10-23T15:20:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T15:20:30+00:00</t>
+    <t>2025-10-27T09:20:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T09:20:18+00:00</t>
+    <t>2025-10-27T10:25:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -595,7 +595,7 @@
     <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example, if you require form or lot number, then you must reference the Medication resource.</t>
   </si>
   <si>
-    <t>http://testSK.org/ValueSet/medicationStatement-meds-codes-vs</t>
+    <t>http://testSK.org/ValueSet/medication-vs</t>
   </si>
   <si>
     <t>Event.code</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T10:25:48+00:00</t>
+    <t>2025-10-30T10:04:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
